--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>856113.126286782</v>
+        <v>858964.2833148669</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238721</v>
+        <v>1667317.432543014</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461769</v>
+        <v>7966425.477977799</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7482395.333086531</v>
+        <v>7948103.285053583</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>304.0074039714629</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>205.7390671050161</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -671,13 +673,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>257.0108323368291</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>71.80679275192915</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -1111,7 +1113,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>53.0363847091458</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>381.7585957657445</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>133.5114010687436</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>22.96189723698664</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.46317346248359</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>171.9323416159872</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1534,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>100.3434053864689</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>138.0050245044787</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -1622,10 +1624,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>304.0074039714627</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7109993851801766</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>63.66352598235808</v>
       </c>
       <c r="C17" t="n">
-        <v>161.4085122120593</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -2053,22 +2055,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>239.0241697704908</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>177.7856699752784</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>149.9890778405621</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -2090,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>213.1444212364198</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
@@ -2299,10 +2301,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>113.1667354347872</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,22 +2320,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>135.0859970817781</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>281.9483152771513</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -2384,7 +2386,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>38.94107028328325</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2557,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>284.7365098831008</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>302.1480073738686</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2713,28 +2715,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>159.3149947016329</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>98.41185199334693</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -2801,13 +2803,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>1.527343104875772</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>236.9241764951637</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>11.69205899092335</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>43.66380379007105</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3034,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>66.68447052885355</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>40.62179896753485</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -3083,7 +3085,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3092,7 +3094,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>39.19550843742099</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>92.65523704301653</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>200.8547663890218</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>60.92398289271571</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3427,25 +3429,25 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>162.7795370659358</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,13 +3505,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>43.36222997564878</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -3521,7 +3523,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>267.3091065114361</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>76.74086563202069</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,22 +3745,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>315.2888038066676</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="D43" t="n">
-        <v>118.9046835062786</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3979,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>372.861631206325</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>330.7513108517471</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4135,16 +4137,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>24.36299181516883</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>165.6158245190445</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2058.57031924742</v>
+        <v>1945.009999395724</v>
       </c>
       <c r="C2" t="n">
-        <v>1665.394817750351</v>
+        <v>1551.834497898654</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.953688967018</v>
+        <v>1344.017258398638</v>
       </c>
       <c r="E2" t="n">
-        <v>877.3701640835627</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="F2" t="n">
-        <v>460.4757256135405</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M2" t="n">
-        <v>1489.649729308197</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>2017.461012945658</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.64850507718</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X2" t="n">
-        <v>2365.64850507718</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y2" t="n">
-        <v>2365.64850507718</v>
+        <v>2345.50474510712</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M3" t="n">
-        <v>1436.116207068686</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.763130931309</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O3" t="n">
-        <v>2131.28341352229</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K4" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M4" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N4" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O4" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P4" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>764.5715220321224</v>
+        <v>784.1461963954926</v>
       </c>
       <c r="C5" t="n">
-        <v>371.396020535053</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="D5" t="n">
-        <v>371.396020535053</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="E5" t="n">
-        <v>371.396020535053</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="F5" t="n">
-        <v>371.396020535053</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G5" t="n">
-        <v>371.396020535053</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K5" t="n">
-        <v>265.4829774041385</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L5" t="n">
-        <v>758.8032691226673</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M5" t="n">
-        <v>1304.804169167248</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N5" t="n">
-        <v>1832.61545280471</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O5" t="n">
-        <v>1832.61545280471</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936232</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U5" t="n">
-        <v>2293.116391186343</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="V5" t="n">
-        <v>1951.009581889861</v>
+        <v>2341.583291284944</v>
       </c>
       <c r="W5" t="n">
-        <v>1951.009581889861</v>
+        <v>1970.584256253232</v>
       </c>
       <c r="X5" t="n">
-        <v>1561.556976822918</v>
+        <v>1581.131651186288</v>
       </c>
       <c r="Y5" t="n">
-        <v>1165.066267743519</v>
+        <v>1184.640942106889</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L6" t="n">
-        <v>367.0521161637701</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M6" t="n">
-        <v>623.643757208308</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.14176221491</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805891</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.283413522289</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K7" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M7" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N7" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O7" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P7" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q7" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U7" t="n">
-        <v>100.8850758683575</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1604.036739400527</v>
+        <v>1235.758524568625</v>
       </c>
       <c r="C8" t="n">
-        <v>1604.036739400527</v>
+        <v>1235.758524568625</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.036739400527</v>
+        <v>850.3173957852928</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>447.7338709018373</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>2230.788503997641</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.03577443224</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.03577443224</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W8" t="n">
-        <v>1604.036739400527</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="X8" t="n">
-        <v>1604.036739400527</v>
+        <v>2032.743979359421</v>
       </c>
       <c r="Y8" t="n">
-        <v>1604.036739400527</v>
+        <v>1636.253270280022</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M9" t="n">
-        <v>632.8109751081457</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N9" t="n">
-        <v>1218.308980114748</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O9" t="n">
-        <v>1734.829262705729</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2140.450631422126</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X9" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K10" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M10" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N10" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O10" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P10" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q10" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>115.6912334709294</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>432.7540988848759</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="C11" t="n">
-        <v>432.7540988848759</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154361</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>1973.427801529577</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>2199.134950018231</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2187.555986924813</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>1931.803257359412</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>1589.69644806293</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W11" t="n">
-        <v>1218.697413031218</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X11" t="n">
-        <v>829.2448079642747</v>
+        <v>2932.287353270436</v>
       </c>
       <c r="Y11" t="n">
-        <v>432.7540988848759</v>
+        <v>2535.796644191037</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154361</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>530.8790559998569</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1116.377061006459</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.875066013061</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O12" t="n">
-        <v>2131.283413522289</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.283413522289</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X12" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.4030175052487</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>847.4030175052487</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K13" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M13" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N13" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O13" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P13" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q13" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>847.4030175052487</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S13" t="n">
-        <v>847.4030175052487</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T13" t="n">
-        <v>847.4030175052487</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U13" t="n">
-        <v>847.4030175052487</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V13" t="n">
-        <v>847.4030175052487</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W13" t="n">
-        <v>847.4030175052487</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X13" t="n">
-        <v>847.4030175052487</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>847.4030175052487</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2365.64850507718</v>
+        <v>2282.020157344956</v>
       </c>
       <c r="C14" t="n">
-        <v>1972.473003580111</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D14" t="n">
-        <v>1587.031874796779</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E14" t="n">
-        <v>1184.448349913323</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F14" t="n">
-        <v>767.5539114433008</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G14" t="n">
-        <v>354.3911559313039</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>191.9627430103717</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>550.9450990378335</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1044.265390756362</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
-        <v>1590.266290800943</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2118.077574438405</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.64850507718</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y14" t="n">
-        <v>2365.64850507718</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>160.427952321271</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>480.1670983834974</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>963.7331842818107</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1549.231189288413</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1549.231189288413</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1725.662044805891</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
-        <v>2131.283413522289</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X15" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>336.6041277001235</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>336.6041277001235</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>336.6041277001235</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>336.6041277001235</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>336.6041277001235</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>335.8859465029718</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>180.4073954644657</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K16" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M16" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N16" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O16" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P16" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q16" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T16" t="n">
-        <v>622.0429194582225</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U16" t="n">
-        <v>336.6041277001235</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V16" t="n">
-        <v>336.6041277001235</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W16" t="n">
-        <v>336.6041277001235</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X16" t="n">
-        <v>336.6041277001235</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
-        <v>336.6041277001235</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>210.3518713258459</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="C17" t="n">
-        <v>47.31297010154361</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154361</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154361</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154361</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U17" t="n">
-        <v>2109.895775511779</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V17" t="n">
-        <v>1767.788966215297</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W17" t="n">
-        <v>1396.789931183585</v>
+        <v>2530.450881400636</v>
       </c>
       <c r="X17" t="n">
-        <v>1007.337326116642</v>
+        <v>2140.998276333693</v>
       </c>
       <c r="Y17" t="n">
-        <v>610.8466170372428</v>
+        <v>1744.507567254294</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154361</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>272.5108437565964</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>858.0088487631986</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769801</v>
+        <v>1521.202330875214</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360782</v>
+        <v>2037.722613466195</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>745.9439088256454</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T19" t="n">
-        <v>510.2248569938795</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U19" t="n">
-        <v>510.2248569938795</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="V19" t="n">
-        <v>510.2248569938795</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="W19" t="n">
-        <v>226.8944549250571</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>771.6433069209571</v>
+        <v>1935.347758983887</v>
       </c>
       <c r="C20" t="n">
-        <v>771.6433069209571</v>
+        <v>1542.172257486817</v>
       </c>
       <c r="D20" t="n">
-        <v>386.2021781376249</v>
+        <v>1156.731128703485</v>
       </c>
       <c r="E20" t="n">
-        <v>386.2021781376249</v>
+        <v>1156.731128703485</v>
       </c>
       <c r="F20" t="n">
-        <v>386.2021781376249</v>
+        <v>739.8366902334629</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5783,19 +5785,19 @@
         <v>2677.949313991765</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426364</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129883</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="W20" t="n">
-        <v>1709.09074009817</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="X20" t="n">
-        <v>1319.638135031227</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="Y20" t="n">
-        <v>923.1474259518279</v>
+        <v>2335.842504695284</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C21" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D21" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F21" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G21" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H21" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>1271.186936128453</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1898.958585755135</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>2554.736556965694</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>3071.256839556675</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R21" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S21" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T21" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U21" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V21" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W21" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X21" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y21" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>2870.237333374011</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U22" t="n">
-        <v>2584.798541615912</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V22" t="n">
-        <v>2318.819196436736</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W22" t="n">
-        <v>2204.509362664224</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1660.213721337995</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C23" t="n">
-        <v>1267.038219840925</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="D23" t="n">
-        <v>881.5970910575932</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="E23" t="n">
-        <v>479.0135661741377</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F23" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6011,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V23" t="n">
-        <v>2821.160107148048</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W23" t="n">
-        <v>2450.161072116335</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X23" t="n">
-        <v>2060.708467049392</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y23" t="n">
-        <v>2060.708467049392</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>1634.317313094942</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2414.048895025793</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>2243.843777091783</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>2243.843777091783</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>2243.843777091783</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>2243.843777091783</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>2903.140301388325</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>2903.140301388325</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U25" t="n">
-        <v>2903.140301388325</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V25" t="n">
-        <v>2637.16095620915</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W25" t="n">
-        <v>2637.16095620915</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>2637.16095620915</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>2414.048895025793</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1243.319282867973</v>
+        <v>1906.455533248656</v>
       </c>
       <c r="C26" t="n">
-        <v>850.1437813709033</v>
+        <v>1906.455533248656</v>
       </c>
       <c r="D26" t="n">
-        <v>464.702652587571</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E26" t="n">
-        <v>62.11912770411553</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F26" t="n">
-        <v>62.11912770411553</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6248,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V26" t="n">
-        <v>2800.756377757424</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W26" t="n">
-        <v>2429.757342725712</v>
+        <v>2306.950278960053</v>
       </c>
       <c r="X26" t="n">
-        <v>2040.304737658769</v>
+        <v>2306.950278960053</v>
       </c>
       <c r="Y26" t="n">
-        <v>1643.81402857937</v>
+        <v>2306.950278960053</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>175.2341099238429</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M27" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N27" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O27" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P27" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>223.043364776472</v>
+        <v>864.1602391412771</v>
       </c>
       <c r="C28" t="n">
-        <v>62.11912770411553</v>
+        <v>693.9551212072663</v>
       </c>
       <c r="D28" t="n">
-        <v>62.11912770411553</v>
+        <v>693.9551212072663</v>
       </c>
       <c r="E28" t="n">
-        <v>62.11912770411553</v>
+        <v>538.3963090664688</v>
       </c>
       <c r="F28" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="G28" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H28" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I28" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J28" t="n">
         <v>62.11912770411553</v>
@@ -6421,13 +6423,13 @@
         <v>963.5661502456679</v>
       </c>
       <c r="W28" t="n">
-        <v>680.2357481768456</v>
+        <v>864.1602391412771</v>
       </c>
       <c r="X28" t="n">
-        <v>446.1554259598287</v>
+        <v>864.1602391412771</v>
       </c>
       <c r="Y28" t="n">
-        <v>223.043364776472</v>
+        <v>864.1602391412771</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1658.024809192975</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="C29" t="n">
-        <v>1264.849307695906</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D29" t="n">
-        <v>879.4081789125737</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E29" t="n">
-        <v>476.8246540291182</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F29" t="n">
-        <v>476.8246540291182</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G29" t="n">
-        <v>63.66189851712136</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6485,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2844.462869050715</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U29" t="n">
-        <v>2844.462869050715</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V29" t="n">
-        <v>2844.462869050715</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W29" t="n">
-        <v>2844.462869050715</v>
+        <v>2866.639035210661</v>
       </c>
       <c r="X29" t="n">
-        <v>2455.010263983771</v>
+        <v>2477.186430143718</v>
       </c>
       <c r="Y29" t="n">
-        <v>2058.519554904372</v>
+        <v>2080.695721064319</v>
       </c>
     </row>
     <row r="30">
@@ -6543,16 +6545,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L30" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M30" t="n">
-        <v>1493.196009291336</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N30" t="n">
-        <v>1974.833293963354</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O30" t="n">
         <v>1974.833293963354</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2697.636305331118</v>
+        <v>2493.082339065652</v>
       </c>
       <c r="C31" t="n">
-        <v>2527.431187397107</v>
+        <v>2493.082339065652</v>
       </c>
       <c r="D31" t="n">
-        <v>2371.798074299622</v>
+        <v>2493.082339065652</v>
       </c>
       <c r="E31" t="n">
-        <v>2359.98791370273</v>
+        <v>2493.082339065652</v>
       </c>
       <c r="F31" t="n">
-        <v>2359.98791370273</v>
+        <v>2493.082339065652</v>
       </c>
       <c r="G31" t="n">
-        <v>2359.98791370273</v>
+        <v>2493.082339065652</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.509362664224</v>
+        <v>2337.603788027146</v>
       </c>
       <c r="I31" t="n">
         <v>2204.509362664224</v>
@@ -6643,28 +6645,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>3061.851532892573</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>3061.851532892573</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>3061.851532892573</v>
       </c>
       <c r="U31" t="n">
-        <v>3105.956385205776</v>
+        <v>2776.412741134474</v>
       </c>
       <c r="V31" t="n">
-        <v>3105.956385205776</v>
+        <v>2776.412741134474</v>
       </c>
       <c r="W31" t="n">
-        <v>3105.956385205776</v>
+        <v>2493.082339065652</v>
       </c>
       <c r="X31" t="n">
-        <v>3105.956385205776</v>
+        <v>2493.082339065652</v>
       </c>
       <c r="Y31" t="n">
-        <v>2882.84432402242</v>
+        <v>2493.082339065652</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>522.652680240431</v>
+        <v>1205.850928587254</v>
       </c>
       <c r="C32" t="n">
-        <v>129.4771787433615</v>
+        <v>812.6754270901843</v>
       </c>
       <c r="D32" t="n">
-        <v>62.11912770411553</v>
+        <v>427.234298306852</v>
       </c>
       <c r="E32" t="n">
-        <v>62.11912770411553</v>
+        <v>427.234298306852</v>
       </c>
       <c r="F32" t="n">
-        <v>62.11912770411553</v>
+        <v>427.234298306852</v>
       </c>
       <c r="G32" t="n">
-        <v>62.11912770411553</v>
+        <v>427.234298306852</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411553</v>
+        <v>103.1512478733426</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6722,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T32" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U32" t="n">
-        <v>2422.196584426364</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V32" t="n">
-        <v>2080.089775129883</v>
+        <v>2373.835418409762</v>
       </c>
       <c r="W32" t="n">
-        <v>1709.09074009817</v>
+        <v>2002.83638337805</v>
       </c>
       <c r="X32" t="n">
-        <v>1319.638135031227</v>
+        <v>2002.83638337805</v>
       </c>
       <c r="Y32" t="n">
-        <v>923.1474259518279</v>
+        <v>1606.345674298651</v>
       </c>
     </row>
     <row r="33">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2414.305903262296</v>
+        <v>2685.648163492603</v>
       </c>
       <c r="C34" t="n">
-        <v>2244.100785328285</v>
+        <v>2685.648163492603</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.509362664224</v>
+        <v>2685.648163492603</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.509362664224</v>
+        <v>2530.089351351805</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>2372.763416564778</v>
       </c>
       <c r="G34" t="n">
         <v>2204.509362664224</v>
@@ -6880,28 +6882,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="S34" t="n">
-        <v>3105.956385205776</v>
+        <v>2779.239312020903</v>
       </c>
       <c r="T34" t="n">
-        <v>3105.956385205776</v>
+        <v>2779.239312020903</v>
       </c>
       <c r="U34" t="n">
-        <v>3105.956385205776</v>
+        <v>2779.239312020903</v>
       </c>
       <c r="V34" t="n">
-        <v>3105.956385205776</v>
+        <v>2779.239312020903</v>
       </c>
       <c r="W34" t="n">
-        <v>2822.625983136954</v>
+        <v>2685.648163492603</v>
       </c>
       <c r="X34" t="n">
-        <v>2822.625983136954</v>
+        <v>2685.648163492603</v>
       </c>
       <c r="Y34" t="n">
-        <v>2599.513921953597</v>
+        <v>2685.648163492603</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2345.50474510712</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="C35" t="n">
         <v>2142.621142693967</v>
@@ -6932,7 +6934,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6962,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U35" t="n">
-        <v>3105.956385205776</v>
+        <v>2877.903453487518</v>
       </c>
       <c r="V35" t="n">
-        <v>3105.956385205776</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="W35" t="n">
-        <v>2734.957350174064</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="X35" t="n">
-        <v>2345.50474510712</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="Y35" t="n">
-        <v>2345.50474510712</v>
+        <v>2535.796644191037</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C36" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D36" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>822.3203958792419</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>1305.886481777555</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>1933.658131404236</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>2589.436102614795</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O36" t="n">
-        <v>3105.956385205776</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R36" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S36" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T36" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U36" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V36" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W36" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X36" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y36" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>230.37318160467</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C37" t="n">
-        <v>230.37318160467</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D37" t="n">
-        <v>230.37318160467</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E37" t="n">
-        <v>230.37318160467</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F37" t="n">
-        <v>230.37318160467</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G37" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H37" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J37" t="n">
         <v>62.11912770411553</v>
@@ -7126,19 +7128,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>678.1273584875689</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V37" t="n">
-        <v>513.7035836734924</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W37" t="n">
-        <v>230.37318160467</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X37" t="n">
-        <v>230.37318160467</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y37" t="n">
-        <v>230.37318160467</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1398.396721325814</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="C38" t="n">
-        <v>1398.396721325814</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D38" t="n">
-        <v>1398.396721325814</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E38" t="n">
-        <v>1354.596489027179</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F38" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G38" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7199,25 +7201,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T38" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U38" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V38" t="n">
-        <v>2559.343107135867</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W38" t="n">
-        <v>2188.344072104155</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X38" t="n">
-        <v>1798.891467037211</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="Y38" t="n">
-        <v>1798.891467037211</v>
+        <v>2797.954272994898</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>1271.186936128453</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M39" t="n">
-        <v>1898.958585755135</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>2554.736556965694</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>3071.256839556675</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.11912770411553</v>
+        <v>2920.748366514475</v>
       </c>
       <c r="C40" t="n">
-        <v>62.11912770411553</v>
+        <v>2750.543248580464</v>
       </c>
       <c r="D40" t="n">
-        <v>62.11912770411553</v>
+        <v>2594.910135482979</v>
       </c>
       <c r="E40" t="n">
-        <v>62.11912770411553</v>
+        <v>2439.351323342181</v>
       </c>
       <c r="F40" t="n">
-        <v>62.11912770411553</v>
+        <v>2282.025388555154</v>
       </c>
       <c r="G40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R40" t="n">
-        <v>839.6651608782449</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S40" t="n">
-        <v>636.8490770607943</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T40" t="n">
-        <v>401.1300252290284</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U40" t="n">
-        <v>115.6912334709294</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V40" t="n">
-        <v>62.11912770411553</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W40" t="n">
-        <v>62.11912770411553</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X40" t="n">
-        <v>62.11912770411553</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.11912770411553</v>
+        <v>3105.956385205776</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>593.6317461087201</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C41" t="n">
-        <v>200.4562446116507</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D41" t="n">
-        <v>200.4562446116507</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>200.4562446116507</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F41" t="n">
-        <v>200.4562446116507</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2080.089775129883</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W41" t="n">
-        <v>1709.09074009817</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X41" t="n">
-        <v>1390.617200899516</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y41" t="n">
-        <v>994.1264918201171</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C42" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D42" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>787.6208502301403</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>1271.186936128453</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M42" t="n">
-        <v>1898.958585755135</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N42" t="n">
-        <v>2554.736556965694</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O42" t="n">
-        <v>3071.256839556675</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R42" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S42" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T42" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U42" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V42" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W42" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X42" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y42" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>352.4299865535593</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C43" t="n">
-        <v>182.2248686195485</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
         <v>62.11912770411553</v>
@@ -7594,25 +7596,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>760.7500664282172</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>760.7500664282172</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W43" t="n">
-        <v>760.7500664282172</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X43" t="n">
-        <v>760.7500664282172</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y43" t="n">
-        <v>537.6380052448606</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>837.1036359229597</v>
+        <v>1577.411516051556</v>
       </c>
       <c r="C44" t="n">
-        <v>460.4757256135405</v>
+        <v>1184.236014554486</v>
       </c>
       <c r="D44" t="n">
-        <v>460.4757256135405</v>
+        <v>798.794885771154</v>
       </c>
       <c r="E44" t="n">
-        <v>460.4757256135405</v>
+        <v>396.2113608876985</v>
       </c>
       <c r="F44" t="n">
-        <v>460.4757256135405</v>
+        <v>396.2113608876985</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>47.31297010154361</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>540.6332618200724</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1049.610128415868</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>1577.42141205333</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2017.461012945658</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2023.541695780699</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W44" t="n">
-        <v>2023.541695780699</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="X44" t="n">
-        <v>1634.089090713755</v>
+        <v>2374.396970842351</v>
       </c>
       <c r="Y44" t="n">
-        <v>1237.598381634357</v>
+        <v>1977.906261762953</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>47.31297010154361</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L45" t="n">
-        <v>530.8790559998569</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M45" t="n">
-        <v>1116.377061006459</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N45" t="n">
-        <v>1443.506853769801</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1960.027136360782</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>373.1512011330396</v>
+        <v>555.24607037101</v>
       </c>
       <c r="C46" t="n">
-        <v>202.9460831990289</v>
+        <v>530.6369877294253</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154361</v>
+        <v>375.0038746319401</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154361</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X46" t="n">
-        <v>781.4712810076976</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y46" t="n">
-        <v>558.3592198243409</v>
+        <v>740.4540890623113</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7987,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>599.6082218521052</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,19 +8066,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>265.8235510992406</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>363.4321479293332</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8228,7 +8230,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>351.5705978518755</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>656.2283997181323</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8465,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>359.0336792490003</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8532,25 +8534,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>318.4607528074828</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
@@ -8702,13 +8704,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8769,25 +8771,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>526.4333644537654</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>320.902235706038</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8939,13 +8941,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>270.9005442600792</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9176,13 +9178,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9243,22 +9245,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>317.5329465084867</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>433.2773539239171</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9489,13 +9491,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9714,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,16 +9953,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M27" t="n">
-        <v>489.2920096079789</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
@@ -9972,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10191,19 +10193,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>571.8744206036794</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10601,7 +10603,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10665,7 +10667,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10680,7 +10682,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10905,7 +10907,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10917,7 +10919,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11139,10 +11141,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>165.8788395891213</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11151,13 +11153,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11294,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>663.8430986641874</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
         <v>682.2612020826953</v>
@@ -11315,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11376,16 +11378,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>415.8062469585524</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.48239428282</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>175.8476503904828</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,10 +22609,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -22708,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22784,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>132.2329141452695</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -22802,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,19 +22834,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>181.3884095178182</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22999,7 +23001,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182382</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>30.96689831957752</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23066,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>87.75419534743392</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23197,10 +23199,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>108.8015838723062</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23236,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23258,25 +23260,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>209.8024229536939</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>213.6257374002865</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,22 +23424,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.31857408727991</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23495,7 +23497,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>251.2387219776199</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>16.83481595771156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>164.8484195083599</v>
@@ -23558,10 +23560,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23667,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8605139763687</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
         <v>30.07448747215907</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>332.8262722719248</v>
       </c>
       <c r="C17" t="n">
-        <v>227.8352342700394</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>43.56023407002726</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>53.95384901956837</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>246.5007204137208</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,16 +23980,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>195.886706720457</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24178,7 +24180,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>167.3303626133469</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24206,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>254.1577494003206</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24251,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>56.73742592636546</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,7 +24366,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24376,7 +24378,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>127.6304430782657</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
         <v>153.923765528121</v>
@@ -24412,25 +24414,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24443,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>96.85020761239815</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>36.53773382964818</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24601,28 +24603,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>9.188072053037729</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>182.0852460547872</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24689,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>319.3148768242984</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
@@ -24740,7 +24742,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>130.3648681862317</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>142.3111650284661</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>78.99817568367774</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
@@ -24892,19 +24894,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>314.9022469666454</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -24932,10 +24934,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>96.33194677092496</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24971,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24980,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>114.8812735290894</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
@@ -25135,13 +25137,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>187.8418610051176</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25156,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>188.3889800930769</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25202,22 +25204,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>192.2712193770317</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25315,25 +25317,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>100.5400146614483</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25391,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>355.1954596589721</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
@@ -25448,16 +25450,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>125.2166954771688</v>
       </c>
     </row>
     <row r="39">
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>89.83064772952822</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>70.26927520960612</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>102.47156805457</v>
       </c>
       <c r="D43" t="n">
-        <v>35.17209846023177</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25834,25 +25836,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>16.38211527577369</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>78.27981710512972</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>144.1400749395018</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
@@ -26086,7 +26088,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>66.12369447580221</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>610125.662944789</v>
+        <v>687366.4954998712</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>610125.6629447895</v>
+        <v>687366.4954998714</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>610125.6629447895</v>
+        <v>687366.4954998712</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610125.6629447893</v>
+        <v>687366.4954998712</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>610125.6629447893</v>
+        <v>687366.4954998712</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>610125.6629447895</v>
+        <v>687366.4954998713</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>687366.4954998714</v>
+        <v>687366.4954998713</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>687366.4954998713</v>
+        <v>687366.4954998714</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>687366.4954998714</v>
+        <v>687366.4954998713</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>687366.4954998711</v>
+        <v>687366.4954998712</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>687366.4954998714</v>
+        <v>687366.4954998712</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>687366.4954998713</v>
+        <v>687366.4954998712</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>610125.6629447892</v>
+        <v>687366.4954998713</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>203273.2178484351</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="C2" t="n">
-        <v>203273.217848435</v>
+        <v>229000.8148323085</v>
       </c>
       <c r="D2" t="n">
-        <v>203273.217848435</v>
+        <v>229000.8148323085</v>
       </c>
       <c r="E2" t="n">
-        <v>203273.2178484351</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="F2" t="n">
-        <v>203273.2178484351</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="G2" t="n">
-        <v>203273.2178484351</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="H2" t="n">
+        <v>229000.8148323085</v>
+      </c>
+      <c r="I2" t="n">
+        <v>229000.8148323085</v>
+      </c>
+      <c r="J2" t="n">
         <v>229000.8148323084</v>
-      </c>
-      <c r="I2" t="n">
-        <v>229000.8148323084</v>
-      </c>
-      <c r="J2" t="n">
-        <v>229000.8148323085</v>
       </c>
       <c r="K2" t="n">
         <v>229000.8148323085</v>
@@ -26344,16 +26346,16 @@
         <v>229000.8148323084</v>
       </c>
       <c r="M2" t="n">
+        <v>229000.8148323084</v>
+      </c>
+      <c r="N2" t="n">
         <v>229000.8148323085</v>
-      </c>
-      <c r="N2" t="n">
-        <v>229000.8148323084</v>
       </c>
       <c r="O2" t="n">
         <v>229000.8148323084</v>
       </c>
       <c r="P2" t="n">
-        <v>203273.2178484351</v>
+        <v>229000.8148323085</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>260219.3554198288</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656034</v>
+        <v>203163.713112695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23353.24319649382</v>
+        <v>26357.40659176976</v>
       </c>
       <c r="C4" t="n">
-        <v>23353.24319649382</v>
+        <v>26357.40659176976</v>
       </c>
       <c r="D4" t="n">
-        <v>23353.24319649382</v>
+        <v>26357.40659176977</v>
       </c>
       <c r="E4" t="n">
-        <v>23353.24319649382</v>
+        <v>26357.40659176976</v>
       </c>
       <c r="F4" t="n">
-        <v>23353.24319649382</v>
+        <v>26357.40659176976</v>
       </c>
       <c r="G4" t="n">
-        <v>23353.24319649382</v>
+        <v>26357.40659176976</v>
       </c>
       <c r="H4" t="n">
         <v>26357.40659176976</v>
@@ -26448,7 +26450,7 @@
         <v>26357.40659176976</v>
       </c>
       <c r="M4" t="n">
-        <v>26357.40659176977</v>
+        <v>26357.40659176976</v>
       </c>
       <c r="N4" t="n">
         <v>26357.40659176976</v>
@@ -26457,7 +26459,7 @@
         <v>26357.40659176976</v>
       </c>
       <c r="P4" t="n">
-        <v>23353.24319649382</v>
+        <v>26357.40659176976</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>80838.13705512779</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>80838.13705512779</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
         <v>47210.5370551278</v>
@@ -26509,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87861.28861697688</v>
+        <v>-138414.0842344179</v>
       </c>
       <c r="C6" t="n">
-        <v>110334.517374768</v>
+        <v>121805.2711854109</v>
       </c>
       <c r="D6" t="n">
-        <v>110334.5173747681</v>
+        <v>121805.271185411</v>
       </c>
       <c r="E6" t="n">
-        <v>143962.1173747682</v>
+        <v>155432.8711854108</v>
       </c>
       <c r="F6" t="n">
-        <v>143962.1173747681</v>
+        <v>155432.8711854108</v>
       </c>
       <c r="G6" t="n">
-        <v>143962.1173747681</v>
+        <v>155432.8711854109</v>
       </c>
       <c r="H6" t="n">
-        <v>105497.4389780068</v>
+        <v>155432.8711854109</v>
       </c>
       <c r="I6" t="n">
         <v>155432.8711854109</v>
       </c>
       <c r="J6" t="n">
-        <v>693.4368198075172</v>
+        <v>-47730.84192728414</v>
       </c>
       <c r="K6" t="n">
         <v>155432.8711854109</v>
       </c>
       <c r="L6" t="n">
-        <v>155432.8711854109</v>
+        <v>155432.8711854108</v>
       </c>
       <c r="M6" t="n">
         <v>155432.8711854109</v>
@@ -26561,7 +26563,7 @@
         <v>155432.8711854109</v>
       </c>
       <c r="P6" t="n">
-        <v>143962.1173747682</v>
+        <v>155432.8711854109</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,19 +34707,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>449.8831702543779</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,19 +34786,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>180.451438245074</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>220.3737447500958</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34948,7 +34950,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>259.1834758025636</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35185,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>209.4698418249039</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>227.4725996515689</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
@@ -35422,13 +35424,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>433.7458055648765</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,13 +35661,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>178.2129853711903</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35896,13 +35898,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>227.4725996515685</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36209,13 +36211,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M27" t="n">
-        <v>396.904887558667</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
@@ -36692,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>486.5023077495127</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37321,7 +37323,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>35.05004611020369</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37400,7 +37402,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37637,7 +37639,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>75.8184927322031</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37871,13 +37873,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>514.1180470664602</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38035,7 +38037,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>330.4341341043857</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>858964.2833148669</v>
+        <v>854430.4601453692</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977799</v>
+        <v>7966425.477977804</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7948103.285053583</v>
+        <v>7948103.285053582</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>205.7390671050161</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>287.9802029231674</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>206.4502314363188</v>
       </c>
       <c r="V4" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>257.0108323368291</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>53.8356682979052</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -964,7 +964,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>352.3835275425279</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>381.7585957657445</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>22.96189723698664</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>146.8340739597078</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -1390,7 +1390,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>290.6844994595285</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>171.9323416159872</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V13" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>138.0050245044787</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>129.1345870873035</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1627,7 +1627,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.3618613134482</v>
@@ -1824,13 +1824,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>144.7467681673238</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.66352598235808</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>320.1886353986604</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -1912,7 +1912,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>239.0241697704908</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>213.1444212364198</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>64.41872800020373</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
@@ -2301,10 +2301,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X22" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>135.0859970817781</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
@@ -2538,10 +2538,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>113.1667354347865</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>284.7365098831008</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2572,7 +2572,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>330.4288257418247</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2715,28 +2715,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>98.41185199334693</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>8.001551092386331</v>
       </c>
       <c r="W29" t="n">
-        <v>236.9241764951637</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.66380379007105</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>40.62179896753485</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>191.0982260229669</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>92.65523704301653</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -3283,7 +3283,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>60.92398289271571</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>256.6058843702002</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3429,25 +3429,25 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3520,7 +3520,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>324.0170396777571</v>
       </c>
       <c r="Y38" t="n">
-        <v>267.3091065114361</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>76.74086563202069</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>157.6926523830313</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>64.41872800020404</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>233.2385090293388</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
         <v>66.03149870010071</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3982,22 +3982,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>330.7513108517471</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>54.70041719277038</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>24.36299181516883</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>95.98918911403638</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1945.009999395724</v>
+        <v>1548.519290316325</v>
       </c>
       <c r="C2" t="n">
-        <v>1551.834497898654</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="D2" t="n">
-        <v>1344.017258398638</v>
+        <v>769.902660035923</v>
       </c>
       <c r="E2" t="n">
-        <v>941.4337335151823</v>
+        <v>769.902660035923</v>
       </c>
       <c r="F2" t="n">
-        <v>524.5392950451601</v>
+        <v>353.0082215659007</v>
       </c>
       <c r="G2" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H2" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I2" t="n">
         <v>62.11912770411553</v>
@@ -4375,7 +4375,7 @@
         <v>2345.50474510712</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.50474510712</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="3">
@@ -4415,13 +4415,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>978.5393418843826</v>
+        <v>691.2836731261136</v>
       </c>
       <c r="M3" t="n">
-        <v>978.5393418843826</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N3" t="n">
-        <v>1458.313011372373</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O3" t="n">
         <v>1974.833293963354</v>
@@ -4512,25 +4512,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U4" t="n">
-        <v>115.6912334709294</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="V4" t="n">
-        <v>62.11912770411553</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="W4" t="n">
-        <v>62.11912770411553</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="X4" t="n">
-        <v>62.11912770411553</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y4" t="n">
         <v>62.11912770411553</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>784.1461963954926</v>
+        <v>1344.017258398638</v>
       </c>
       <c r="C5" t="n">
-        <v>524.5392950451601</v>
+        <v>1344.017258398638</v>
       </c>
       <c r="D5" t="n">
-        <v>524.5392950451601</v>
+        <v>1344.017258398638</v>
       </c>
       <c r="E5" t="n">
-        <v>524.5392950451601</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="F5" t="n">
         <v>524.5392950451601</v>
@@ -4564,7 +4564,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I5" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J5" t="n">
         <v>206.7689006129436</v>
@@ -4591,28 +4591,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>2939.442830146827</v>
+        <v>2847.070453505172</v>
       </c>
       <c r="U5" t="n">
-        <v>2683.690100581426</v>
+        <v>2847.070453505172</v>
       </c>
       <c r="V5" t="n">
-        <v>2341.583291284944</v>
+        <v>2504.96364420869</v>
       </c>
       <c r="W5" t="n">
-        <v>1970.584256253232</v>
+        <v>2133.964609176978</v>
       </c>
       <c r="X5" t="n">
-        <v>1581.131651186288</v>
+        <v>1744.512004110035</v>
       </c>
       <c r="Y5" t="n">
-        <v>1184.640942106889</v>
+        <v>1744.512004110035</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>658.8001958221562</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N6" t="n">
         <v>1223.947919817482</v>
@@ -4749,19 +4749,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U7" t="n">
-        <v>115.6912334709294</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V7" t="n">
-        <v>62.11912770411553</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W7" t="n">
         <v>62.11912770411553</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.758524568625</v>
+        <v>1650.702803683255</v>
       </c>
       <c r="C8" t="n">
-        <v>1235.758524568625</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D8" t="n">
-        <v>850.3173957852928</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E8" t="n">
-        <v>447.7338709018373</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F8" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G8" t="n">
         <v>62.11912770411553</v>
@@ -4801,7 +4801,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4843,13 +4843,13 @@
         <v>2422.196584426364</v>
       </c>
       <c r="W8" t="n">
-        <v>2422.196584426364</v>
+        <v>2051.197549394652</v>
       </c>
       <c r="X8" t="n">
-        <v>2032.743979359421</v>
+        <v>2051.197549394652</v>
       </c>
       <c r="Y8" t="n">
-        <v>1636.253270280022</v>
+        <v>2051.197549394652</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N9" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
         <v>1740.468202408463</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4986,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U10" t="n">
-        <v>115.6912334709294</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V10" t="n">
-        <v>115.6912334709294</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W10" t="n">
-        <v>115.6912334709294</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X10" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y10" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2535.796644191037</v>
+        <v>1994.876002400046</v>
       </c>
       <c r="C11" t="n">
-        <v>2142.621142693967</v>
+        <v>1601.700500902976</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.180013910635</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="E11" t="n">
-        <v>1354.596489027179</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F11" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G11" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H11" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5065,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V11" t="n">
-        <v>3105.956385205776</v>
+        <v>2384.328607466989</v>
       </c>
       <c r="W11" t="n">
-        <v>3105.956385205776</v>
+        <v>2384.328607466989</v>
       </c>
       <c r="X11" t="n">
-        <v>2932.287353270436</v>
+        <v>1994.876002400046</v>
       </c>
       <c r="Y11" t="n">
-        <v>2535.796644191037</v>
+        <v>1994.876002400046</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.973980501895</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5223,22 +5223,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S13" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U13" t="n">
-        <v>115.6912334709294</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V13" t="n">
-        <v>62.11912770411553</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W13" t="n">
-        <v>62.11912770411553</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X13" t="n">
         <v>62.11912770411553</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2282.020157344956</v>
+        <v>2142.457375356031</v>
       </c>
       <c r="C14" t="n">
-        <v>2142.621142693967</v>
+        <v>1749.281873858962</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.180013910635</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E14" t="n">
-        <v>1354.596489027179</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F14" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G14" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H14" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5302,28 +5302,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T14" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U14" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V14" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W14" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="X14" t="n">
-        <v>2678.510866424355</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="Y14" t="n">
-        <v>2282.020157344956</v>
+        <v>2542.952121067428</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5460,22 +5460,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U16" t="n">
-        <v>115.6912334709294</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V16" t="n">
-        <v>62.11912770411553</v>
+        <v>442.408306655803</v>
       </c>
       <c r="W16" t="n">
-        <v>62.11912770411553</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X16" t="n">
         <v>62.11912770411553</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1680.200975352922</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="C17" t="n">
-        <v>1680.200975352922</v>
+        <v>926.4626335341572</v>
       </c>
       <c r="D17" t="n">
-        <v>1294.75984656959</v>
+        <v>926.4626335341572</v>
       </c>
       <c r="E17" t="n">
-        <v>892.1763216861347</v>
+        <v>523.8791086507017</v>
       </c>
       <c r="F17" t="n">
-        <v>475.2818832161124</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G17" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H17" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5545,22 +5545,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T17" t="n">
-        <v>2901.449916432349</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U17" t="n">
-        <v>2901.449916432349</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V17" t="n">
-        <v>2901.449916432349</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W17" t="n">
-        <v>2530.450881400636</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X17" t="n">
-        <v>2140.998276333693</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y17" t="n">
-        <v>1744.507567254294</v>
+        <v>1319.638135031227</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1521.202330875214</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2037.722613466195</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5700,22 +5700,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>760.7500664282172</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U19" t="n">
-        <v>519.3115111044891</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V19" t="n">
-        <v>519.3115111044891</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W19" t="n">
-        <v>519.3115111044891</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X19" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y19" t="n">
         <v>62.11912770411553</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1935.347758983887</v>
+        <v>1753.004770289088</v>
       </c>
       <c r="C20" t="n">
-        <v>1542.172257486817</v>
+        <v>1359.829268792018</v>
       </c>
       <c r="D20" t="n">
-        <v>1156.731128703485</v>
+        <v>1359.829268792018</v>
       </c>
       <c r="E20" t="n">
-        <v>1156.731128703485</v>
+        <v>957.2457439085626</v>
       </c>
       <c r="F20" t="n">
-        <v>739.8366902334629</v>
+        <v>540.3513054385404</v>
       </c>
       <c r="G20" t="n">
-        <v>524.5392950451601</v>
+        <v>127.1885499265435</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>127.1885499265435</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5776,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U20" t="n">
-        <v>2677.949313991765</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V20" t="n">
-        <v>2335.842504695284</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W20" t="n">
-        <v>2335.842504695284</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="X20" t="n">
-        <v>2335.842504695284</v>
+        <v>2549.990225079884</v>
       </c>
       <c r="Y20" t="n">
-        <v>2335.842504695284</v>
+        <v>2153.499516000485</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5940,16 +5940,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U22" t="n">
-        <v>678.1273584875689</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V22" t="n">
-        <v>412.1480133083932</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W22" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X22" t="n">
         <v>62.11912770411553</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>522.652680240431</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C23" t="n">
-        <v>386.2021781376249</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D23" t="n">
-        <v>386.2021781376249</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>386.2021781376249</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>386.2021781376249</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6013,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U23" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V23" t="n">
-        <v>2080.089775129883</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W23" t="n">
-        <v>1709.09074009817</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X23" t="n">
-        <v>1319.638135031227</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y23" t="n">
-        <v>923.1474259518279</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6177,16 +6177,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U25" t="n">
-        <v>442.408306655803</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V25" t="n">
-        <v>176.4289614766272</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W25" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X25" t="n">
         <v>62.11912770411553</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1906.455533248656</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C26" t="n">
-        <v>1906.455533248656</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D26" t="n">
-        <v>1618.8428970031</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E26" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F26" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G26" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6259,19 +6259,19 @@
         <v>2677.949313991765</v>
       </c>
       <c r="U26" t="n">
-        <v>2677.949313991765</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V26" t="n">
-        <v>2677.949313991765</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W26" t="n">
-        <v>2306.950278960053</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="X26" t="n">
-        <v>2306.950278960053</v>
+        <v>2088.430093778056</v>
       </c>
       <c r="Y26" t="n">
-        <v>2306.950278960053</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>864.1602391412771</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>693.9551212072663</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>693.9551212072663</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>538.3963090664688</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
         <v>62.11912770411553</v>
@@ -6414,22 +6414,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U28" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V28" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W28" t="n">
-        <v>864.1602391412771</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>864.1602391412771</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>864.1602391412771</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1680.200975352922</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C29" t="n">
-        <v>1680.200975352922</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D29" t="n">
         <v>1294.75984656959</v>
       </c>
       <c r="E29" t="n">
-        <v>892.1763216861345</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F29" t="n">
         <v>475.2818832161124</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6493,22 +6493,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U29" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V29" t="n">
-        <v>3105.956385205776</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="W29" t="n">
-        <v>2866.639035210661</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X29" t="n">
-        <v>2477.186430143718</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y29" t="n">
-        <v>2080.695721064319</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2493.082339065652</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>2493.082339065652</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>2493.082339065652</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>2493.082339065652</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>2493.082339065652</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>2493.082339065652</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.603788027146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3061.851532892573</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3061.851532892573</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>3061.851532892573</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>2776.412741134474</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V31" t="n">
-        <v>2776.412741134474</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W31" t="n">
-        <v>2493.082339065652</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X31" t="n">
-        <v>2493.082339065652</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>2493.082339065652</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1205.850928587254</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C32" t="n">
-        <v>812.6754270901843</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D32" t="n">
-        <v>427.234298306852</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E32" t="n">
-        <v>427.234298306852</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F32" t="n">
-        <v>427.234298306852</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G32" t="n">
-        <v>427.234298306852</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H32" t="n">
-        <v>103.1512478733426</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6724,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T32" t="n">
-        <v>2715.942227706244</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U32" t="n">
-        <v>2715.942227706244</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V32" t="n">
-        <v>2373.835418409762</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W32" t="n">
-        <v>2002.83638337805</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X32" t="n">
-        <v>2002.83638337805</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y32" t="n">
-        <v>1606.345674298651</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C33" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D33" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E33" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F33" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G33" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H33" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>787.6208502301403</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>1271.186936128453</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1898.958585755135</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>2554.736556965694</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O33" t="n">
-        <v>3071.256839556675</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P33" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R33" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S33" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T33" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U33" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V33" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W33" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X33" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y33" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2685.648163492603</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>2685.648163492603</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>2685.648163492603</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>2530.089351351805</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>2372.763416564778</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>2779.239312020903</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>2779.239312020903</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>2779.239312020903</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V34" t="n">
-        <v>2779.239312020903</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W34" t="n">
-        <v>2685.648163492603</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X34" t="n">
-        <v>2685.648163492603</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>2685.648163492603</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2535.796644191037</v>
+        <v>1826.272464974195</v>
       </c>
       <c r="C35" t="n">
-        <v>2142.621142693967</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D35" t="n">
-        <v>1757.180013910635</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E35" t="n">
-        <v>1354.596489027179</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F35" t="n">
-        <v>937.702050557157</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G35" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H35" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6964,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2939.442830146827</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U35" t="n">
-        <v>2877.903453487518</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.796644191037</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W35" t="n">
-        <v>2535.796644191037</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="X35" t="n">
-        <v>2535.796644191037</v>
+        <v>2623.257919764991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2535.796644191037</v>
+        <v>2226.767210685592</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
         <v>62.11912770411553</v>
@@ -7125,22 +7125,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U37" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V37" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2397.459527283501</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C38" t="n">
-        <v>2004.284025786432</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D38" t="n">
-        <v>1618.8428970031</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7207,19 +7207,19 @@
         <v>3067.963471491298</v>
       </c>
       <c r="U38" t="n">
-        <v>3067.963471491298</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="V38" t="n">
-        <v>3067.963471491298</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="W38" t="n">
-        <v>3067.963471491298</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="X38" t="n">
-        <v>3067.963471491298</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y38" t="n">
-        <v>2797.954272994898</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2920.748366514475</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C40" t="n">
-        <v>2750.543248580464</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D40" t="n">
-        <v>2594.910135482979</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E40" t="n">
-        <v>2439.351323342181</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
-        <v>2282.025388555154</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>3105.956385205776</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U40" t="n">
-        <v>3105.956385205776</v>
+        <v>568.5615909562946</v>
       </c>
       <c r="V40" t="n">
-        <v>3105.956385205776</v>
+        <v>568.5615909562946</v>
       </c>
       <c r="W40" t="n">
-        <v>3105.956385205776</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="X40" t="n">
-        <v>3105.956385205776</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y40" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2073.376476849992</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C41" t="n">
-        <v>1680.200975352922</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D41" t="n">
         <v>1294.75984656959</v>
@@ -7438,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="V41" t="n">
-        <v>3105.956385205776</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="W41" t="n">
-        <v>3105.956385205776</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X41" t="n">
-        <v>2870.361931640788</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y41" t="n">
-        <v>2473.871222561389</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>456.9185815712231</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1084.690231197904</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7548,19 +7548,19 @@
         <v>128.8176112395708</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="H43" t="n">
         <v>62.11912770411553</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.411516051556</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C44" t="n">
-        <v>1184.236014554486</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D44" t="n">
-        <v>798.794885771154</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="E44" t="n">
-        <v>396.2113608876985</v>
+        <v>1085.766385253034</v>
       </c>
       <c r="F44" t="n">
-        <v>396.2113608876985</v>
+        <v>668.8719467830116</v>
       </c>
       <c r="G44" t="n">
+        <v>255.7091912710147</v>
+      </c>
+      <c r="H44" t="n">
+        <v>200.4562446116507</v>
+      </c>
+      <c r="I44" t="n">
         <v>62.11912770411553</v>
-      </c>
-      <c r="H44" t="n">
-        <v>62.11912770411551</v>
-      </c>
-      <c r="I44" t="n">
-        <v>62.11912770411551</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7672,28 +7672,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V44" t="n">
-        <v>2763.849575909295</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W44" t="n">
-        <v>2763.849575909295</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X44" t="n">
-        <v>2374.396970842351</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y44" t="n">
-        <v>1977.906261762953</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.24607037101</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>530.6369877294253</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>375.0038746319401</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
         <v>62.11912770411553</v>
@@ -7836,22 +7836,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U46" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V46" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W46" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X46" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -8063,16 +8063,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>288.3536975034276</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>569.9919810238538</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8233,7 +8233,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8297,16 +8297,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N6" t="n">
-        <v>656.2283997181323</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8470,7 +8470,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8540,13 +8540,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O9" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8768,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>320.902235706038</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8947,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,10 +9005,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9017,13 +9017,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9251,19 +9251,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>433.2773539239171</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,19 +9479,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9500,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,10 +10427,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10439,13 +10439,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>464.9323088406971</v>
       </c>
       <c r="P33" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,25 +10901,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11141,25 +11141,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>165.8788395891213</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11387,16 +11387,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22552,22 +22552,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>175.8476503904828</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>121.0509250337095</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>76.13417240419929</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>132.2329141452695</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>167.4299281182723</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22989,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23023,19 +23023,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>36.86021893957081</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>30.96689831957752</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23083,13 +23083,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23199,10 +23199,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>108.8015838723062</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>48.00124174398826</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>213.6257374002865</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>251.2387219776199</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>252.4521304081954</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
@@ -23560,7 +23560,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.8262722719248</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>92.53685868666156</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23940,25 +23940,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>43.56023407002726</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>195.886706720457</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>72.53501773825609</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24180,7 +24180,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X22" t="n">
-        <v>165.708020294746</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>254.1577494003206</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>167.3303626133476</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>96.85020761239815</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24499,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>55.12925327444901</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24603,28 +24603,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>182.0852460547872</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>330.6841901111305</v>
       </c>
       <c r="W29" t="n">
-        <v>130.3648681862317</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>78.99817568367774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>96.33194677092496</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>194.4598529933068</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>187.8418610051176</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>192.2712193770317</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>128.9521946460735</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,25 +25317,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25447,7 +25447,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25456,10 +25456,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>61.54103933851661</v>
       </c>
       <c r="Y38" t="n">
-        <v>125.2166954771688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>89.83064772952822</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25602,22 +25602,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>124.8917514574867</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>156.8468684159735</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
@@ -25693,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>152.3195699869349</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>102.47156805457</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25803,7 +25803,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>87.89226682802024</v>
       </c>
       <c r="I43" t="n">
         <v>131.7634811092929</v>
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>78.27981710512972</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>266.1418027364039</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -25924,7 +25924,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>144.1400749395018</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
@@ -26076,22 +26076,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>687366.4954998712</v>
+        <v>687366.4954998713</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>687366.4954998714</v>
+        <v>687366.4954998713</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>687366.4954998712</v>
+        <v>687366.4954998713</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>687366.4954998712</v>
+        <v>687366.4954998713</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>687366.4954998713</v>
+        <v>687366.4954998712</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>687366.4954998714</v>
+        <v>687366.4954998712</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>687366.4954998712</v>
+        <v>687366.4954998713</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>687366.4954998712</v>
+        <v>687366.4954998713</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>687366.4954998713</v>
+        <v>687366.4954998712</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>687366.4954998713</v>
+        <v>687366.4954998712</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323085</v>
       </c>
       <c r="C2" t="n">
         <v>229000.8148323085</v>
       </c>
       <c r="D2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="E2" t="n">
         <v>229000.8148323084</v>
       </c>
       <c r="F2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323085</v>
       </c>
       <c r="G2" t="n">
         <v>229000.8148323084</v>
       </c>
       <c r="H2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="I2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="J2" t="n">
         <v>229000.8148323084</v>
       </c>
       <c r="K2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="L2" t="n">
         <v>229000.8148323084</v>
@@ -26352,10 +26352,10 @@
         <v>229000.8148323085</v>
       </c>
       <c r="O2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323085</v>
       </c>
       <c r="P2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323083</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>26357.40659176976</v>
       </c>
       <c r="D4" t="n">
-        <v>26357.40659176977</v>
+        <v>26357.40659176976</v>
       </c>
       <c r="E4" t="n">
         <v>26357.40659176976</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-138414.0842344179</v>
+        <v>-138945.1792662831</v>
       </c>
       <c r="C6" t="n">
-        <v>121805.2711854109</v>
+        <v>121274.1761535458</v>
       </c>
       <c r="D6" t="n">
-        <v>121805.271185411</v>
+        <v>121274.1761535457</v>
       </c>
       <c r="E6" t="n">
-        <v>155432.8711854108</v>
+        <v>154901.7761535457</v>
       </c>
       <c r="F6" t="n">
-        <v>155432.8711854108</v>
+        <v>154901.7761535458</v>
       </c>
       <c r="G6" t="n">
-        <v>155432.8711854109</v>
+        <v>154901.7761535457</v>
       </c>
       <c r="H6" t="n">
-        <v>155432.8711854109</v>
+        <v>154901.7761535457</v>
       </c>
       <c r="I6" t="n">
-        <v>155432.8711854109</v>
+        <v>154901.7761535457</v>
       </c>
       <c r="J6" t="n">
-        <v>-47730.84192728414</v>
+        <v>-48261.93695914932</v>
       </c>
       <c r="K6" t="n">
-        <v>155432.8711854109</v>
+        <v>154901.7761535457</v>
       </c>
       <c r="L6" t="n">
-        <v>155432.8711854108</v>
+        <v>154901.7761535457</v>
       </c>
       <c r="M6" t="n">
-        <v>155432.8711854109</v>
+        <v>154901.7761535457</v>
       </c>
       <c r="N6" t="n">
-        <v>155432.8711854109</v>
+        <v>154901.7761535458</v>
       </c>
       <c r="O6" t="n">
-        <v>155432.8711854109</v>
+        <v>154901.7761535458</v>
       </c>
       <c r="P6" t="n">
-        <v>155432.8711854109</v>
+        <v>154901.7761535456</v>
       </c>
     </row>
   </sheetData>
@@ -34704,7 +34704,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34783,16 +34783,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>198.2933506465093</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>484.6198681696871</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34953,7 +34953,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35017,16 +35017,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N6" t="n">
-        <v>570.8562868639657</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35190,7 +35190,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35260,13 +35260,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O9" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35415,7 +35415,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>233.8188708867233</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35737,13 +35737,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35971,19 +35971,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>346.1939891046024</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36220,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36931,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37159,13 +37159,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="P33" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>75.8184927322031</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38107,16 +38107,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
